--- a/VENTAS.xlsx
+++ b/VENTAS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="72">
   <si>
     <t xml:space="preserve">Descripción de cliente 2</t>
   </si>
@@ -623,7 +623,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1216,8 +1216,8 @@
       <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>2383</v>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>46</v>
